--- a/отчеты Останкино (поставки)/Останкино_недогрузы/Донецк.xlsx
+++ b/отчеты Останкино (поставки)/Останкино_недогрузы/Донецк.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\Останкино_недогрузы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\отчеты Останкино (поставки)\Останкино_недогрузы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C0D968-1A28-4E77-A9E4-6C9CFF4CBC1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D89A971-48BB-46A7-BE6E-70326208C36B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1676,7 +1676,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
